--- a/data/testcases.xlsx
+++ b/data/testcases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="28800" yWindow="-680" windowWidth="37600" windowHeight="21140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="56">
   <si>
     <t>module</t>
   </si>
@@ -2052,27 +2052,6 @@
   </si>
   <si>
     <t>{
-  "id": 2,
-  "category": {
-    "id": 1,
-    "name": "string"
-  },
-  "name": "Dog",
-  "photoUrls": [
-    "string"
-  ],
-  "tags": [
-    {
-      "id": 0,
-      "name": "string"
-    }
-  ],
-  "status": "sold"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
   "code": 1,
   "type": "error",
   "message": "Pet not found"
@@ -2080,1702 +2059,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[
-  {
-    "id": 9222895647106167000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "big"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106167000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "big"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106167000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "big"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106167000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "big"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106167000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "big"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106167000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "big"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106167000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "big"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106167000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "big"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106167000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106167000,
-    "name": "doggie",
-    "photoUrls": [],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106167000,
-    "name": "doggie",
-    "photoUrls": [],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106167000,
-    "name": "doggie",
-    "photoUrls": [],
-    "tags": [],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106167000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 3,
-    "category": {
-      "id": 4,
-      "name": "Koala"
-    },
-    "name": "Dracoona",
-    "photoUrls": [
-      "http://image/koala.jpg"
-    ],
-    "tags": [
-      {
-        "id": 4,
-        "name": "brown"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "test",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie1",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "test",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 255115,
-    "category": {
-      "id": 525480,
-      "name": "dog"
-    },
-    "name": "Elwanek",
-    "photoUrls": [
-      "/Users/a/Documents/Sel/workspace/PetStoreAPITesting1",
-      "/Users/a/Documents/Sel/workspace/PetStoreAPITesting2"
-    ],
-    "tags": [
-      {
-        "id": 113051,
-        "name": "for kids"
-      },
-      {
-        "id": 456838,
-        "name": "small"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 83,
-    "category": {
-      "id": 84,
-      "name": "Racoon"
-    },
-    "name": "Dracoona",
-    "photoUrls": [
-      "http://image/koala.jpg"
-    ],
-    "tags": [
-      {
-        "id": 84,
-        "name": "brown"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "name": "test_name",
-    "photoUrls": [],
-    "tags": [],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "test",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 12121,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "TestPetName",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "name": "test_name",
-    "photoUrls": [],
-    "tags": [],
-    "status": "available"
-  },
-  {
-    "id": 1245,
-    "category": {
-      "id": 1245,
-      "name": "xyz"
-    },
-    "name": "xyz",
-    "photoUrls": [
-      "test"
-    ],
-    "tags": [],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "test",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "Jerry"
-    },
-    "name": "Mouse",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "Mouse"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 601,
-    "category": {
-      "id": 1,
-      "name": "dogs"
-    },
-    "name": "Kevin",
-    "photoUrls": [
-      ""
-    ],
-    "tags": [
-      {
-        "id": 0
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "name": "doggie",
-    "photoUrls": [],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "name": "doggie",
-    "photoUrls": [],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "test",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "name": "doggie",
-    "photoUrls": [],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 2,
-    "category": {
-      "id": 2,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 2,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "test",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "test",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "test",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "name": "test_name",
-    "photoUrls": [],
-    "tags": [],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "test",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "Dogs"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 2231,
-      "name": "Dogs"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 991,
-    "category": {
-      "id": 87,
-      "name": "category991"
-    },
-    "name": "Llama",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "test",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "dog"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "photo.png"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "mouse"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "test",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "babu"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "babu"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "test",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "cat",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "Oonagh"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "name": "Goot Doggie",
-    "photoUrls": [
-      "https://media.karousell.com/media/photos/products/2017/09/14/doggi_door_stopper_1505372529_5cdd1eba0"
-    ],
-    "tags": [],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "name": "Goot Doggie",
-    "photoUrls": [
-      "https://media.karousell.com/media/photos/products/2017/09/14/doggi_door_stopper_1505372529_5cdd1eba0"
-    ],
-    "tags": [],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [],
-    "tags": [],
-    "status": "available"
-  },
-  {
-    "id": 42,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "Oonagh",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "name": "Goot Doggie",
-    "photoUrls": [
-      "https://media.karousell.com/media/photos/products/2017/09/14/doggi_door_stopper_1505372529_5cdd1eba0"
-    ],
-    "tags": [],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "name": "Goot Doggie",
-    "photoUrls": [
-      "https://media.karousell.com/media/photos/products/2017/09/14/doggi_door_stopper_1505372529_5cdd1eba0"
-    ],
-    "tags": [],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "test",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "dog"
-    },
-    "name": "Rex",
-    "photoUrls": [
-      "http://example.com/images/rex.png"
-    ],
-    "tags": [],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "doggie",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 112233,
-    "category": {
-      "id": 30,
-      "name": "Eq-dog"
-    },
-    "name": "Postman",
-    "photoUrls": [
-      "URLLink"
-    ],
-    "tags": [
-      {
-        "id": 10,
-        "name": "Doberman"
-      }
-    ],
-    "status": "available"
-  },
-  {
-    "id": 9222895647106168000,
-    "category": {
-      "id": 0,
-      "name": "string"
-    },
-    "name": "Christian's Bloodhound",
-    "photoUrls": [
-      "string"
-    ],
-    "tags": [
-      {
-        "id": 0,
-        "name": "string"
-      }
-    ],
-    "status": "available"
-  }
-]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>根据id查询宠物</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{"Accept":"application/json"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "id": 1002,
-  "category": {
-    "id": 0,
-    "name": "string"
-  },
-  "name": "doggie",
-  "photoUrls": [
-    "string"
-  ],
-  "tags": [
-    {
-      "id": 0,
-      "name": "string"
-    }
-  ],
-  "status": "available"
-}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3788,6 +2076,62 @@
  &lt;/Category&gt;
  &lt;name&gt;doggie&lt;/name&gt;
  &lt;photoUrl&gt;"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Accept":"application/json"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "id": 1002,
+  "category": {
+    "id": 0,
+    "name": "string"
+  },
+  "name": "doggie",
+  "photoUrls": [
+    "string"
+  ],
+  "tags": [
+    {
+      "id": 0,
+      "name": "string"
+    }
+  ],
+  "status": "available"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://petstore.swagger.io/v2/pet/1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>postID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>getID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "check":[
+        {
+            "method":"exist",
+            "exp":true,
+            "path":"$.category.id",
+            "message":""
+        },
+        {
+            "method":"equal",
+            "exp":"doggie123",
+            "path":"$.name",
+            "message":""
+        }
+    ]
+}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3848,7 +2192,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3864,8 +2208,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3878,13 +2228,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4185,8 +2540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4196,11 +2551,13 @@
     <col min="4" max="4" width="40.6640625" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" customWidth="1"/>
+    <col min="8" max="8" width="24.5" customWidth="1"/>
     <col min="9" max="9" width="22.6640625" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" customWidth="1"/>
     <col min="11" max="11" width="28.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
@@ -4244,7 +2601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="106" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4252,7 +2609,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>16</v>
@@ -4293,7 +2650,7 @@
         <v>404</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="79" customHeight="1" x14ac:dyDescent="0.15">
@@ -4374,7 +2731,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J6">
         <v>200</v>
@@ -4400,7 +2757,7 @@
         <v>37</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>51</v>
@@ -4432,10 +2789,10 @@
         <v>37</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
         <v>44</v>
@@ -4467,8 +2824,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="59.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="294" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2">
+        <v>200</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" ht="79" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" ht="59" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" ht="82" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" ht="82" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D8" s="2"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P18"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4483,87 +2974,79 @@
     <col min="9" max="9" width="22.6640625" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" customWidth="1"/>
     <col min="11" max="11" width="28.83203125" customWidth="1"/>
+    <col min="16" max="16" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="56" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2">
-        <v>200</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="56" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -4572,47 +3055,45 @@
         <v>18</v>
       </c>
       <c r="J3">
-        <v>404</v>
+        <v>200</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="79" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J4">
-        <v>200</v>
+        <v>404</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="79" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -4624,7 +3105,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>18</v>
@@ -4633,15 +3114,15 @@
         <v>200</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="59" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -4653,7 +3134,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>18</v>
@@ -4662,47 +3143,44 @@
         <v>200</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="82" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="59" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="J7">
         <v>200</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="82" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="82" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -4717,310 +3195,332 @@
         <v>38</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J8">
         <v>200</v>
       </c>
       <c r="K8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="82" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9">
+        <v>200</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="252" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12">
+        <v>200</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="70" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13">
+        <v>404</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="409" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14">
+        <v>200</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="409" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15">
+        <v>200</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="409" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16">
+        <v>200</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="308" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="409" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18">
+        <v>200</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A10:M10"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" tooltip="https://petstore.swagger.io/v2/pet/2"/>
-    <hyperlink ref="D4" r:id="rId2" tooltip="https://petstore.swagger.io/v2/pet/findByStatus"/>
-    <hyperlink ref="D3" r:id="rId3" tooltip="https://petstore.swagger.io/v2/pet/1000"/>
-    <hyperlink ref="D5" r:id="rId4" tooltip="https://petstore.swagger.io/v2/pet/findByStatus"/>
-    <hyperlink ref="D6" r:id="rId5" tooltip="https://petstore.swagger.io/v2/pet/findByStatus"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1"/>
-    <col min="11" max="11" width="28.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="56" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2">
-        <v>200</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="47" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3">
-        <v>404</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="79" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4">
-        <v>200</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5">
-        <v>200</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="59" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6">
-        <v>200</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="82" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7">
-        <v>200</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="82" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8">
-        <v>200</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" tooltip="https://petstore.swagger.io/v2/pet/2"/>
-    <hyperlink ref="D4" r:id="rId2" tooltip="https://petstore.swagger.io/v2/pet/findByStatus"/>
-    <hyperlink ref="D3" r:id="rId3" tooltip="https://petstore.swagger.io/v2/pet/1000"/>
-    <hyperlink ref="D5" r:id="rId4" tooltip="https://petstore.swagger.io/v2/pet/findByStatus"/>
-    <hyperlink ref="D6" r:id="rId5" tooltip="https://petstore.swagger.io/v2/pet/findByStatus"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D3" r:id="rId1" tooltip="https://petstore.swagger.io/v2/pet/2"/>
+    <hyperlink ref="D5" r:id="rId2" tooltip="https://petstore.swagger.io/v2/pet/findByStatus"/>
+    <hyperlink ref="D4" r:id="rId3" tooltip="https://petstore.swagger.io/v2/pet/1000"/>
+    <hyperlink ref="D6" r:id="rId4" tooltip="https://petstore.swagger.io/v2/pet/findByStatus"/>
+    <hyperlink ref="D7" r:id="rId5" tooltip="https://petstore.swagger.io/v2/pet/findByStatus"/>
+    <hyperlink ref="D8" r:id="rId6"/>
+    <hyperlink ref="D9" r:id="rId7"/>
+    <hyperlink ref="D12" r:id="rId8" tooltip="https://petstore.swagger.io/v2/pet/2"/>
+    <hyperlink ref="D14" r:id="rId9" tooltip="https://petstore.swagger.io/v2/pet/findByStatus"/>
+    <hyperlink ref="D13" r:id="rId10" tooltip="https://petstore.swagger.io/v2/pet/1000"/>
+    <hyperlink ref="D15" r:id="rId11" tooltip="https://petstore.swagger.io/v2/pet/findByStatus"/>
+    <hyperlink ref="D16" r:id="rId12" tooltip="https://petstore.swagger.io/v2/pet/findByStatus"/>
+    <hyperlink ref="D17" r:id="rId13"/>
+    <hyperlink ref="D18" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data/testcases.xlsx
+++ b/data/testcases.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/work/kljTest/kljpc/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/auto/kljpc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-680" windowWidth="37600" windowHeight="21140" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -2540,7 +2540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -2824,8 +2824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
